--- a/excel_files/output/Result.xlsx
+++ b/excel_files/output/Result.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -50,27 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -477,12 +456,12 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>User 1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dev Tech 1 </t>
         </is>
@@ -495,8 +474,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="1" t="inlineStr">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>User 1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Dev Tech 11</t>
         </is>
@@ -509,8 +492,12 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n"/>
-      <c r="B4" s="1" t="inlineStr">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>User 1</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Dev Tech 22</t>
         </is>
@@ -523,8 +510,12 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="1" t="inlineStr">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>User 1</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Dev Tech 27</t>
         </is>
@@ -537,8 +528,12 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="1" t="inlineStr">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>User 1</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Dev Tech 29</t>
         </is>
@@ -551,8 +546,12 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="1" t="inlineStr">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>User 1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Dev Tech 3</t>
         </is>
@@ -565,8 +564,12 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="1" t="inlineStr">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>User 1</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Dev Tech 30</t>
         </is>
@@ -579,8 +582,12 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="1" t="inlineStr">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>User 1</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Dev Tech 31</t>
         </is>
@@ -593,8 +600,12 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>User 1</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Dev Tech 4</t>
         </is>
@@ -607,8 +618,12 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="1" t="inlineStr">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>User 1</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Dev Tech 40</t>
         </is>
@@ -621,8 +636,12 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="1" t="inlineStr">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>User 1</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Dev Tech 57</t>
         </is>
@@ -635,12 +654,12 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>User 10</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>Dev Tech 10</t>
         </is>
@@ -653,8 +672,12 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="inlineStr">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>User 10</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Dev Tech 12</t>
         </is>
@@ -667,8 +690,12 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="inlineStr">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>User 10</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Dev Tech 13</t>
         </is>
@@ -681,8 +708,12 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="1" t="inlineStr">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>User 10</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Dev Tech 31</t>
         </is>
@@ -695,8 +726,12 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="inlineStr">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>User 10</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Dev Tech 36</t>
         </is>
@@ -709,8 +744,12 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>User 10</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Dev Tech 38</t>
         </is>
@@ -723,8 +762,12 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="inlineStr">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>User 10</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Dev Tech 39</t>
         </is>
@@ -737,8 +780,12 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="1" t="inlineStr">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>User 10</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Dev Tech 49</t>
         </is>
@@ -751,8 +798,12 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>User 10</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Dev Tech 5</t>
         </is>
@@ -765,8 +816,12 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="inlineStr">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>User 10</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Dev Tech 9</t>
         </is>
@@ -779,12 +834,12 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
+      <c r="A23" t="inlineStr">
         <is>
           <t>User 11</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>Dev Tech 10</t>
         </is>
@@ -797,8 +852,12 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="inlineStr">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>User 11</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Dev Tech 11</t>
         </is>
@@ -811,8 +870,12 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="inlineStr">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>User 11</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Dev Tech 13</t>
         </is>
@@ -825,8 +888,12 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>User 11</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Dev Tech 14</t>
         </is>
@@ -839,8 +906,12 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="inlineStr">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>User 11</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Dev Tech 32</t>
         </is>
@@ -853,8 +924,12 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="inlineStr">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>User 11</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Dev Tech 37</t>
         </is>
@@ -867,8 +942,12 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="inlineStr">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>User 11</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Dev Tech 39</t>
         </is>
@@ -881,8 +960,12 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="inlineStr">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>User 11</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Dev Tech 40</t>
         </is>
@@ -895,8 +978,12 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>User 11</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Dev Tech 50</t>
         </is>
@@ -909,8 +996,12 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="inlineStr">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>User 11</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Dev Tech 6</t>
         </is>
@@ -923,12 +1014,12 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+      <c r="A33" t="inlineStr">
         <is>
           <t>User 12</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Dev Tech 11</t>
         </is>
@@ -941,8 +1032,12 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="1" t="inlineStr">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>User 12</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Dev Tech 12</t>
         </is>
@@ -955,8 +1050,12 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="inlineStr">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>User 12</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Dev Tech 14</t>
         </is>
@@ -969,8 +1068,12 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="inlineStr">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>User 12</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>Dev Tech 15</t>
         </is>
@@ -983,8 +1086,12 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="inlineStr">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>User 12</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>Dev Tech 33</t>
         </is>
@@ -997,8 +1104,12 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="inlineStr">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>User 12</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>Dev Tech 38</t>
         </is>
@@ -1011,8 +1122,12 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="inlineStr">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>User 12</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>Dev Tech 40</t>
         </is>
@@ -1025,8 +1140,12 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="inlineStr">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>User 12</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>Dev Tech 41</t>
         </is>
@@ -1039,8 +1158,12 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="inlineStr">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>User 12</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>Dev Tech 51</t>
         </is>
@@ -1053,8 +1176,12 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="1" t="inlineStr">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>User 12</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>Dev Tech 7</t>
         </is>
@@ -1067,12 +1194,12 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
+      <c r="A43" t="inlineStr">
         <is>
           <t>User 13</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Dev Tech 1</t>
         </is>
@@ -1085,8 +1212,12 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
-      <c r="B44" s="1" t="inlineStr">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>User 13</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Dev Tech 12</t>
         </is>
@@ -1099,8 +1230,12 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="1" t="inlineStr">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>User 13</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Dev Tech 13</t>
         </is>
@@ -1113,8 +1248,12 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n"/>
-      <c r="B46" s="1" t="inlineStr">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>User 13</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Dev Tech 15</t>
         </is>
@@ -1127,8 +1266,12 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="1" t="inlineStr">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>User 13</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Dev Tech 34</t>
         </is>
@@ -1141,8 +1284,12 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n"/>
-      <c r="B48" s="1" t="inlineStr">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>User 13</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Dev Tech 39</t>
         </is>
@@ -1155,8 +1302,12 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n"/>
-      <c r="B49" s="1" t="inlineStr">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>User 13</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Dev Tech 41</t>
         </is>
@@ -1169,8 +1320,12 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n"/>
-      <c r="B50" s="1" t="inlineStr">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>User 13</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Dev Tech 42</t>
         </is>
@@ -1183,8 +1338,12 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n"/>
-      <c r="B51" s="1" t="inlineStr">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>User 13</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Dev Tech 52</t>
         </is>
@@ -1197,8 +1356,12 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n"/>
-      <c r="B52" s="1" t="inlineStr">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>User 13</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Dev Tech 8</t>
         </is>
@@ -1211,12 +1374,12 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" t="inlineStr">
         <is>
           <t>User 14</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
         <is>
           <t>Dev Tech 13</t>
         </is>
@@ -1229,8 +1392,12 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
-      <c r="B54" s="1" t="inlineStr">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>User 14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Dev Tech 14</t>
         </is>
@@ -1243,8 +1410,12 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
-      <c r="B55" s="1" t="inlineStr">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>User 14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Dev Tech 16</t>
         </is>
@@ -1257,8 +1428,12 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
-      <c r="B56" s="1" t="inlineStr">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>User 14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Dev Tech 2</t>
         </is>
@@ -1271,8 +1446,12 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
-      <c r="B57" s="1" t="inlineStr">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>User 14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>Dev Tech 35</t>
         </is>
@@ -1285,8 +1464,12 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
-      <c r="B58" s="1" t="inlineStr">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>User 14</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Dev Tech 40</t>
         </is>
@@ -1299,8 +1482,12 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
-      <c r="B59" s="1" t="inlineStr">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>User 14</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Dev Tech 42</t>
         </is>
@@ -1313,8 +1500,12 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n"/>
-      <c r="B60" s="1" t="inlineStr">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>User 14</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>Dev Tech 43</t>
         </is>
@@ -1327,8 +1518,12 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
-      <c r="B61" s="1" t="inlineStr">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>User 14</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Dev Tech 53</t>
         </is>
@@ -1341,8 +1536,12 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n"/>
-      <c r="B62" s="1" t="inlineStr">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>User 14</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Dev Tech 9</t>
         </is>
@@ -1355,12 +1554,12 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
+      <c r="A63" t="inlineStr">
         <is>
           <t>User 15</t>
         </is>
       </c>
-      <c r="B63" s="1" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Dev Tech 10</t>
         </is>
@@ -1373,8 +1572,12 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n"/>
-      <c r="B64" s="1" t="inlineStr">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>User 15</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Dev Tech 14</t>
         </is>
@@ -1387,8 +1590,12 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n"/>
-      <c r="B65" s="1" t="inlineStr">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>User 15</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>Dev Tech 15</t>
         </is>
@@ -1401,8 +1608,12 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n"/>
-      <c r="B66" s="1" t="inlineStr">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>User 15</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Dev Tech 17</t>
         </is>
@@ -1415,8 +1626,12 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n"/>
-      <c r="B67" s="1" t="inlineStr">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>User 15</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Dev Tech 36</t>
         </is>
@@ -1429,8 +1644,12 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n"/>
-      <c r="B68" s="1" t="inlineStr">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>User 15</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Dev Tech 41</t>
         </is>
@@ -1443,8 +1662,12 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
-      <c r="B69" s="1" t="inlineStr">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>User 15</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Dev Tech 43</t>
         </is>
@@ -1457,8 +1680,12 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n"/>
-      <c r="B70" s="1" t="inlineStr">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>User 15</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Dev Tech 44</t>
         </is>
@@ -1471,8 +1698,12 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n"/>
-      <c r="B71" s="1" t="inlineStr">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>User 15</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Dev Tech 54</t>
         </is>
@@ -1485,12 +1716,12 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="inlineStr">
+      <c r="A72" t="inlineStr">
         <is>
           <t>User 16</t>
         </is>
       </c>
-      <c r="B72" s="1" t="inlineStr">
+      <c r="B72" t="inlineStr">
         <is>
           <t>Dev Tech 1</t>
         </is>
@@ -1503,8 +1734,12 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
-      <c r="B73" s="1" t="inlineStr">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>User 16</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Dev Tech 11</t>
         </is>
@@ -1517,8 +1752,12 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n"/>
-      <c r="B74" s="1" t="inlineStr">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>User 16</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>Dev Tech 15</t>
         </is>
@@ -1531,8 +1770,12 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n"/>
-      <c r="B75" s="1" t="inlineStr">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>User 16</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Dev Tech 18</t>
         </is>
@@ -1545,8 +1788,12 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n"/>
-      <c r="B76" s="1" t="inlineStr">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>User 16</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Dev Tech 37</t>
         </is>
@@ -1559,8 +1806,12 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n"/>
-      <c r="B77" s="1" t="inlineStr">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>User 16</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Dev Tech 42</t>
         </is>
@@ -1573,8 +1824,12 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n"/>
-      <c r="B78" s="1" t="inlineStr">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>User 16</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Dev Tech 44</t>
         </is>
@@ -1587,8 +1842,12 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n"/>
-      <c r="B79" s="1" t="inlineStr">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>User 16</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>Dev Tech 45</t>
         </is>
@@ -1601,8 +1860,12 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n"/>
-      <c r="B80" s="1" t="inlineStr">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>User 16</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>Dev Tech 55</t>
         </is>
@@ -1615,12 +1878,12 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="inlineStr">
+      <c r="A81" t="inlineStr">
         <is>
           <t>User 17</t>
         </is>
       </c>
-      <c r="B81" s="1" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>Dev Tech 12</t>
         </is>
@@ -1633,8 +1896,12 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n"/>
-      <c r="B82" s="1" t="inlineStr">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>User 17</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Dev Tech 16</t>
         </is>
@@ -1647,8 +1914,12 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n"/>
-      <c r="B83" s="1" t="inlineStr">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>User 17</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Dev Tech 19</t>
         </is>
@@ -1661,8 +1932,12 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n"/>
-      <c r="B84" s="1" t="inlineStr">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>User 17</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Dev Tech 2</t>
         </is>
@@ -1675,8 +1950,12 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n"/>
-      <c r="B85" s="1" t="inlineStr">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>User 17</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Dev Tech 38</t>
         </is>
@@ -1689,8 +1968,12 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n"/>
-      <c r="B86" s="1" t="inlineStr">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>User 17</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Dev Tech 43</t>
         </is>
@@ -1703,8 +1986,12 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n"/>
-      <c r="B87" s="1" t="inlineStr">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>User 17</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Dev Tech 45</t>
         </is>
@@ -1717,8 +2004,12 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n"/>
-      <c r="B88" s="1" t="inlineStr">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>User 17</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>Dev Tech 46</t>
         </is>
@@ -1731,8 +2022,12 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n"/>
-      <c r="B89" s="1" t="inlineStr">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>User 17</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Dev Tech 56</t>
         </is>
@@ -1745,12 +2040,12 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="inlineStr">
+      <c r="A90" t="inlineStr">
         <is>
           <t>User 18</t>
         </is>
       </c>
-      <c r="B90" s="1" t="inlineStr">
+      <c r="B90" t="inlineStr">
         <is>
           <t>Dev Tech 13</t>
         </is>
@@ -1763,8 +2058,12 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n"/>
-      <c r="B91" s="1" t="inlineStr">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>User 18</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Dev Tech 15</t>
         </is>
@@ -1777,8 +2076,12 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n"/>
-      <c r="B92" s="1" t="inlineStr">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>User 18</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Dev Tech 17</t>
         </is>
@@ -1791,8 +2094,12 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n"/>
-      <c r="B93" s="1" t="inlineStr">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>User 18</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Dev Tech 20</t>
         </is>
@@ -1805,8 +2112,12 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n"/>
-      <c r="B94" s="1" t="inlineStr">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>User 18</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Dev Tech 3</t>
         </is>
@@ -1819,8 +2130,12 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n"/>
-      <c r="B95" s="1" t="inlineStr">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>User 18</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Dev Tech 39</t>
         </is>
@@ -1833,8 +2148,12 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n"/>
-      <c r="B96" s="1" t="inlineStr">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>User 18</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>Dev Tech 44</t>
         </is>
@@ -1847,8 +2166,12 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n"/>
-      <c r="B97" s="1" t="inlineStr">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>User 18</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>Dev Tech 47</t>
         </is>
@@ -1861,8 +2184,12 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
-      <c r="B98" s="1" t="inlineStr">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>User 18</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Dev Tech 57</t>
         </is>
@@ -1875,12 +2202,12 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="inlineStr">
+      <c r="A99" t="inlineStr">
         <is>
           <t>User 19</t>
         </is>
       </c>
-      <c r="B99" s="1" t="inlineStr">
+      <c r="B99" t="inlineStr">
         <is>
           <t>Dev Tech 14</t>
         </is>
@@ -1893,8 +2220,12 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n"/>
-      <c r="B100" s="1" t="inlineStr">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>User 19</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>Dev Tech 16</t>
         </is>
@@ -1907,8 +2238,12 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
-      <c r="B101" s="1" t="inlineStr">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>User 19</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>Dev Tech 18</t>
         </is>
@@ -1921,8 +2256,12 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n"/>
-      <c r="B102" s="1" t="inlineStr">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>User 19</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>Dev Tech 21</t>
         </is>
@@ -1935,8 +2274,12 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
-      <c r="B103" s="1" t="inlineStr">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>User 19</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>Dev Tech 4</t>
         </is>
@@ -1949,8 +2292,12 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n"/>
-      <c r="B104" s="1" t="inlineStr">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>User 19</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>Dev Tech 40</t>
         </is>
@@ -1963,8 +2310,12 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n"/>
-      <c r="B105" s="1" t="inlineStr">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>User 19</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>Dev Tech 45</t>
         </is>
@@ -1977,8 +2328,12 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n"/>
-      <c r="B106" s="1" t="inlineStr">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>User 19</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>Dev Tech 48</t>
         </is>
@@ -1991,8 +2346,12 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n"/>
-      <c r="B107" s="1" t="inlineStr">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>User 19</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>Dev Tech 58</t>
         </is>
@@ -2005,12 +2364,12 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="inlineStr">
+      <c r="A108" t="inlineStr">
         <is>
           <t>User 2</t>
         </is>
       </c>
-      <c r="B108" s="1" t="inlineStr">
+      <c r="B108" t="inlineStr">
         <is>
           <t>Dev Tech 1</t>
         </is>
@@ -2023,8 +2382,12 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n"/>
-      <c r="B109" s="1" t="inlineStr">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>User 2</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>Dev Tech 12</t>
         </is>
@@ -2037,8 +2400,12 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n"/>
-      <c r="B110" s="1" t="inlineStr">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>User 2</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>Dev Tech 2</t>
         </is>
@@ -2051,8 +2418,12 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n"/>
-      <c r="B111" s="1" t="inlineStr">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>User 2</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Dev Tech 23</t>
         </is>
@@ -2065,8 +2436,12 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n"/>
-      <c r="B112" s="1" t="inlineStr">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>User 2</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>Dev Tech 28</t>
         </is>
@@ -2079,8 +2454,12 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n"/>
-      <c r="B113" s="1" t="inlineStr">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>User 2</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>Dev Tech 30</t>
         </is>
@@ -2093,8 +2472,12 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n"/>
-      <c r="B114" s="1" t="inlineStr">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>User 2</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>Dev Tech 31</t>
         </is>
@@ -2107,8 +2490,12 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n"/>
-      <c r="B115" s="1" t="inlineStr">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>User 2</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>Dev Tech 4</t>
         </is>
@@ -2121,8 +2508,12 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n"/>
-      <c r="B116" s="1" t="inlineStr">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>User 2</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>Dev Tech 41</t>
         </is>
@@ -2135,8 +2526,12 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n"/>
-      <c r="B117" s="1" t="inlineStr">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>User 2</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Dev Tech 5</t>
         </is>
@@ -2149,12 +2544,12 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="inlineStr">
+      <c r="A118" t="inlineStr">
         <is>
           <t>User 20</t>
         </is>
       </c>
-      <c r="B118" s="1" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>Dev Tech 15</t>
         </is>
@@ -2167,8 +2562,12 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="n"/>
-      <c r="B119" s="1" t="inlineStr">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>User 20</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>Dev Tech 17</t>
         </is>
@@ -2181,8 +2580,12 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="n"/>
-      <c r="B120" s="1" t="inlineStr">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>User 20</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>Dev Tech 19</t>
         </is>
@@ -2195,8 +2598,12 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="n"/>
-      <c r="B121" s="1" t="inlineStr">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>User 20</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>Dev Tech 20</t>
         </is>
@@ -2209,8 +2616,12 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="n"/>
-      <c r="B122" s="1" t="inlineStr">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>User 20</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>Dev Tech 22</t>
         </is>
@@ -2223,8 +2634,12 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="n"/>
-      <c r="B123" s="1" t="inlineStr">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>User 20</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>Dev Tech 41</t>
         </is>
@@ -2237,8 +2652,12 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="n"/>
-      <c r="B124" s="1" t="inlineStr">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>User 20</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>Dev Tech 46</t>
         </is>
@@ -2251,8 +2670,12 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="n"/>
-      <c r="B125" s="1" t="inlineStr">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>User 20</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>Dev Tech 49</t>
         </is>
@@ -2265,8 +2688,12 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="n"/>
-      <c r="B126" s="1" t="inlineStr">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>User 20</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>Dev Tech 5</t>
         </is>
@@ -2279,12 +2706,12 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="inlineStr">
+      <c r="A127" t="inlineStr">
         <is>
           <t>User 21</t>
         </is>
       </c>
-      <c r="B127" s="1" t="inlineStr">
+      <c r="B127" t="inlineStr">
         <is>
           <t>Dev Tech 1</t>
         </is>
@@ -2297,8 +2724,12 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="n"/>
-      <c r="B128" s="1" t="inlineStr">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>User 21</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>Dev Tech 18</t>
         </is>
@@ -2311,8 +2742,12 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="n"/>
-      <c r="B129" s="1" t="inlineStr">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>User 21</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>Dev Tech 20</t>
         </is>
@@ -2325,8 +2760,12 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="n"/>
-      <c r="B130" s="1" t="inlineStr">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>User 21</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>Dev Tech 21</t>
         </is>
@@ -2339,8 +2778,12 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="n"/>
-      <c r="B131" s="1" t="inlineStr">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>User 21</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>Dev Tech 23</t>
         </is>
@@ -2353,8 +2796,12 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="inlineStr">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>User 21</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>Dev Tech 42</t>
         </is>
@@ -2367,8 +2814,12 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="n"/>
-      <c r="B133" s="1" t="inlineStr">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>User 21</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>Dev Tech 47</t>
         </is>
@@ -2381,8 +2832,12 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="n"/>
-      <c r="B134" s="1" t="inlineStr">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>User 21</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>Dev Tech 50</t>
         </is>
@@ -2395,8 +2850,12 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="n"/>
-      <c r="B135" s="1" t="inlineStr">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>User 21</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>Dev Tech 6</t>
         </is>
@@ -2409,12 +2868,12 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="inlineStr">
+      <c r="A136" t="inlineStr">
         <is>
           <t>User 22</t>
         </is>
       </c>
-      <c r="B136" s="1" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>Dev Tech 19</t>
         </is>
@@ -2427,8 +2886,12 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="n"/>
-      <c r="B137" s="1" t="inlineStr">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>User 22</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>Dev Tech 2</t>
         </is>
@@ -2441,8 +2904,12 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="1" t="n"/>
-      <c r="B138" s="1" t="inlineStr">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>User 22</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>Dev Tech 21</t>
         </is>
@@ -2455,8 +2922,12 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="1" t="n"/>
-      <c r="B139" s="1" t="inlineStr">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>User 22</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>Dev Tech 22</t>
         </is>
@@ -2469,8 +2940,12 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="n"/>
-      <c r="B140" s="1" t="inlineStr">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>User 22</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>Dev Tech 24</t>
         </is>
@@ -2483,8 +2958,12 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="n"/>
-      <c r="B141" s="1" t="inlineStr">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>User 22</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>Dev Tech 43</t>
         </is>
@@ -2497,8 +2976,12 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="n"/>
-      <c r="B142" s="1" t="inlineStr">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>User 22</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>Dev Tech 48</t>
         </is>
@@ -2511,8 +2994,12 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="n"/>
-      <c r="B143" s="1" t="inlineStr">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>User 22</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>Dev Tech 51</t>
         </is>
@@ -2525,8 +3012,12 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="1" t="n"/>
-      <c r="B144" s="1" t="inlineStr">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>User 22</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>Dev Tech 7</t>
         </is>
@@ -2539,12 +3030,12 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="inlineStr">
+      <c r="A145" t="inlineStr">
         <is>
           <t>User 23</t>
         </is>
       </c>
-      <c r="B145" s="1" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>Dev Tech 20</t>
         </is>
@@ -2557,8 +3048,12 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="1" t="n"/>
-      <c r="B146" s="1" t="inlineStr">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>User 23</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>Dev Tech 22</t>
         </is>
@@ -2571,8 +3066,12 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="n"/>
-      <c r="B147" s="1" t="inlineStr">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>User 23</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>Dev Tech 23</t>
         </is>
@@ -2585,8 +3084,12 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="1" t="n"/>
-      <c r="B148" s="1" t="inlineStr">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>User 23</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t>Dev Tech 25</t>
         </is>
@@ -2599,8 +3102,12 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="n"/>
-      <c r="B149" s="1" t="inlineStr">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>User 23</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>Dev Tech 3</t>
         </is>
@@ -2613,8 +3120,12 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="1" t="n"/>
-      <c r="B150" s="1" t="inlineStr">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>User 23</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>Dev Tech 44</t>
         </is>
@@ -2627,8 +3138,12 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="1" t="n"/>
-      <c r="B151" s="1" t="inlineStr">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>User 23</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>Dev Tech 49</t>
         </is>
@@ -2641,8 +3156,12 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="1" t="n"/>
-      <c r="B152" s="1" t="inlineStr">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>User 23</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t>Dev Tech 52</t>
         </is>
@@ -2655,8 +3174,12 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="1" t="n"/>
-      <c r="B153" s="1" t="inlineStr">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>User 23</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>Dev Tech 8</t>
         </is>
@@ -2669,12 +3192,12 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="1" t="inlineStr">
+      <c r="A154" t="inlineStr">
         <is>
           <t>User 24</t>
         </is>
       </c>
-      <c r="B154" s="1" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>Dev Tech 21</t>
         </is>
@@ -2687,8 +3210,12 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="1" t="n"/>
-      <c r="B155" s="1" t="inlineStr">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>User 24</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
         <is>
           <t>Dev Tech 23</t>
         </is>
@@ -2701,8 +3228,12 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="1" t="n"/>
-      <c r="B156" s="1" t="inlineStr">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>User 24</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
         <is>
           <t>Dev Tech 24</t>
         </is>
@@ -2715,8 +3246,12 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="1" t="n"/>
-      <c r="B157" s="1" t="inlineStr">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>User 24</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
         <is>
           <t>Dev Tech 26</t>
         </is>
@@ -2729,8 +3264,12 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="1" t="n"/>
-      <c r="B158" s="1" t="inlineStr">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>User 24</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t>Dev Tech 45</t>
         </is>
@@ -2743,8 +3282,12 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="1" t="n"/>
-      <c r="B159" s="1" t="inlineStr">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>User 24</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
         <is>
           <t>Dev Tech 53</t>
         </is>
@@ -2757,8 +3300,12 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="n"/>
-      <c r="B160" s="1" t="inlineStr">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>User 24</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
         <is>
           <t>Dev Tech 9</t>
         </is>
@@ -2771,12 +3318,12 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="inlineStr">
+      <c r="A161" t="inlineStr">
         <is>
           <t>User 25</t>
         </is>
       </c>
-      <c r="B161" s="1" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Dev Tech 10</t>
         </is>
@@ -2789,8 +3336,12 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="n"/>
-      <c r="B162" s="1" t="inlineStr">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>User 25</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
         <is>
           <t>Dev Tech 22</t>
         </is>
@@ -2803,8 +3354,12 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="n"/>
-      <c r="B163" s="1" t="inlineStr">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>User 25</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
         <is>
           <t>Dev Tech 24</t>
         </is>
@@ -2817,8 +3372,12 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="n"/>
-      <c r="B164" s="1" t="inlineStr">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>User 25</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
         <is>
           <t>Dev Tech 25</t>
         </is>
@@ -2831,8 +3390,12 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="n"/>
-      <c r="B165" s="1" t="inlineStr">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>User 25</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
         <is>
           <t>Dev Tech 46</t>
         </is>
@@ -2845,8 +3408,12 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="n"/>
-      <c r="B166" s="1" t="inlineStr">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>User 25</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
         <is>
           <t>Dev Tech 54</t>
         </is>
@@ -2859,12 +3426,12 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="inlineStr">
+      <c r="A167" t="inlineStr">
         <is>
           <t>User 26</t>
         </is>
       </c>
-      <c r="B167" s="1" t="inlineStr">
+      <c r="B167" t="inlineStr">
         <is>
           <t>Dev Tech 1</t>
         </is>
@@ -2877,8 +3444,12 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="n"/>
-      <c r="B168" s="1" t="inlineStr">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>User 26</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
         <is>
           <t>Dev Tech 23</t>
         </is>
@@ -2891,8 +3462,12 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="n"/>
-      <c r="B169" s="1" t="inlineStr">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>User 26</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
         <is>
           <t>Dev Tech 25</t>
         </is>
@@ -2905,8 +3480,12 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="n"/>
-      <c r="B170" s="1" t="inlineStr">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>User 26</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
         <is>
           <t>Dev Tech 26</t>
         </is>
@@ -2919,8 +3498,12 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="n"/>
-      <c r="B171" s="1" t="inlineStr">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>User 26</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
         <is>
           <t>Dev Tech 55</t>
         </is>
@@ -2933,12 +3516,12 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="inlineStr">
+      <c r="A172" t="inlineStr">
         <is>
           <t>User 27</t>
         </is>
       </c>
-      <c r="B172" s="1" t="inlineStr">
+      <c r="B172" t="inlineStr">
         <is>
           <t>Dev Tech 2</t>
         </is>
@@ -2951,8 +3534,12 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="n"/>
-      <c r="B173" s="1" t="inlineStr">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>User 27</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
         <is>
           <t>Dev Tech 24</t>
         </is>
@@ -2965,8 +3552,12 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="n"/>
-      <c r="B174" s="1" t="inlineStr">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>User 27</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
         <is>
           <t>Dev Tech 26</t>
         </is>
@@ -2979,8 +3570,12 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="n"/>
-      <c r="B175" s="1" t="inlineStr">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>User 27</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
         <is>
           <t>Dev Tech 27</t>
         </is>
@@ -2993,8 +3588,12 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="n"/>
-      <c r="B176" s="1" t="inlineStr">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>User 27</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
         <is>
           <t>Dev Tech 56</t>
         </is>
@@ -3007,12 +3606,12 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="inlineStr">
+      <c r="A177" t="inlineStr">
         <is>
           <t>User 28</t>
         </is>
       </c>
-      <c r="B177" s="1" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>Dev Tech 25</t>
         </is>
@@ -3025,8 +3624,12 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="1" t="n"/>
-      <c r="B178" s="1" t="inlineStr">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>User 28</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
         <is>
           <t>Dev Tech 27</t>
         </is>
@@ -3039,8 +3642,12 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="n"/>
-      <c r="B179" s="1" t="inlineStr">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>User 28</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
         <is>
           <t>Dev Tech 28</t>
         </is>
@@ -3053,12 +3660,12 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="inlineStr">
+      <c r="A180" t="inlineStr">
         <is>
           <t>User 29</t>
         </is>
       </c>
-      <c r="B180" s="1" t="inlineStr">
+      <c r="B180" t="inlineStr">
         <is>
           <t>Dev Tech 26</t>
         </is>
@@ -3071,8 +3678,12 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="n"/>
-      <c r="B181" s="1" t="inlineStr">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>User 29</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
         <is>
           <t>Dev Tech 28</t>
         </is>
@@ -3085,8 +3696,12 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="n"/>
-      <c r="B182" s="1" t="inlineStr">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>User 29</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
         <is>
           <t>Dev Tech 29</t>
         </is>
@@ -3099,12 +3714,12 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="1" t="inlineStr">
+      <c r="A183" t="inlineStr">
         <is>
           <t>User 3</t>
         </is>
       </c>
-      <c r="B183" s="1" t="inlineStr">
+      <c r="B183" t="inlineStr">
         <is>
           <t>Dev Tech 13</t>
         </is>
@@ -3117,8 +3732,12 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="n"/>
-      <c r="B184" s="1" t="inlineStr">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>User 3</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
         <is>
           <t>Dev Tech 2</t>
         </is>
@@ -3131,8 +3750,12 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="n"/>
-      <c r="B185" s="1" t="inlineStr">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>User 3</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
         <is>
           <t>Dev Tech 24</t>
         </is>
@@ -3145,8 +3768,12 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="n"/>
-      <c r="B186" s="1" t="inlineStr">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>User 3</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
         <is>
           <t>Dev Tech 29</t>
         </is>
@@ -3159,8 +3786,12 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="n"/>
-      <c r="B187" s="1" t="inlineStr">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>User 3</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
         <is>
           <t>Dev Tech 3</t>
         </is>
@@ -3173,8 +3804,12 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="n"/>
-      <c r="B188" s="1" t="inlineStr">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>User 3</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
         <is>
           <t>Dev Tech 31</t>
         </is>
@@ -3187,8 +3822,12 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="n"/>
-      <c r="B189" s="1" t="inlineStr">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>User 3</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
         <is>
           <t>Dev Tech 32</t>
         </is>
@@ -3201,8 +3840,12 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="n"/>
-      <c r="B190" s="1" t="inlineStr">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>User 3</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
         <is>
           <t>Dev Tech 42</t>
         </is>
@@ -3215,8 +3858,12 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="n"/>
-      <c r="B191" s="1" t="inlineStr">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>User 3</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
         <is>
           <t>Dev Tech 5</t>
         </is>
@@ -3229,8 +3876,12 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="n"/>
-      <c r="B192" s="1" t="inlineStr">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>User 3</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
         <is>
           <t>Dev Tech 6</t>
         </is>
@@ -3243,12 +3894,12 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="inlineStr">
+      <c r="A193" t="inlineStr">
         <is>
           <t>User 30</t>
         </is>
       </c>
-      <c r="B193" s="1" t="inlineStr">
+      <c r="B193" t="inlineStr">
         <is>
           <t>Dev Tech 30</t>
         </is>
@@ -3261,12 +3912,12 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="inlineStr">
+      <c r="A194" t="inlineStr">
         <is>
           <t>User 4</t>
         </is>
       </c>
-      <c r="B194" s="1" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Dev Tech 14</t>
         </is>
@@ -3279,8 +3930,12 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="n"/>
-      <c r="B195" s="1" t="inlineStr">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>User 4</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
         <is>
           <t>Dev Tech 25</t>
         </is>
@@ -3293,8 +3948,12 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="1" t="n"/>
-      <c r="B196" s="1" t="inlineStr">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>User 4</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
         <is>
           <t>Dev Tech 3</t>
         </is>
@@ -3307,8 +3966,12 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="1" t="n"/>
-      <c r="B197" s="1" t="inlineStr">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>User 4</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
         <is>
           <t>Dev Tech 30</t>
         </is>
@@ -3321,8 +3984,12 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="1" t="n"/>
-      <c r="B198" s="1" t="inlineStr">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>User 4</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
         <is>
           <t>Dev Tech 32</t>
         </is>
@@ -3335,8 +4002,12 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="1" t="n"/>
-      <c r="B199" s="1" t="inlineStr">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>User 4</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
         <is>
           <t>Dev Tech 33</t>
         </is>
@@ -3349,8 +4020,12 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="1" t="n"/>
-      <c r="B200" s="1" t="inlineStr">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>User 4</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
         <is>
           <t>Dev Tech 4</t>
         </is>
@@ -3363,8 +4038,12 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="1" t="n"/>
-      <c r="B201" s="1" t="inlineStr">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>User 4</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
         <is>
           <t>Dev Tech 43</t>
         </is>
@@ -3377,8 +4056,12 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="1" t="n"/>
-      <c r="B202" s="1" t="inlineStr">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>User 4</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
         <is>
           <t>Dev Tech 6</t>
         </is>
@@ -3391,8 +4074,12 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="1" t="n"/>
-      <c r="B203" s="1" t="inlineStr">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>User 4</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
         <is>
           <t>Dev Tech 7</t>
         </is>
@@ -3405,12 +4092,12 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="1" t="inlineStr">
+      <c r="A204" t="inlineStr">
         <is>
           <t>User 5</t>
         </is>
       </c>
-      <c r="B204" s="1" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>Dev Tech 15</t>
         </is>
@@ -3423,8 +4110,12 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="1" t="n"/>
-      <c r="B205" s="1" t="inlineStr">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>User 5</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
         <is>
           <t>Dev Tech 26</t>
         </is>
@@ -3437,8 +4128,12 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="1" t="n"/>
-      <c r="B206" s="1" t="inlineStr">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>User 5</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
         <is>
           <t>Dev Tech 31</t>
         </is>
@@ -3451,8 +4146,12 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="1" t="n"/>
-      <c r="B207" s="1" t="inlineStr">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>User 5</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
         <is>
           <t>Dev Tech 33</t>
         </is>
@@ -3465,8 +4164,12 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="1" t="n"/>
-      <c r="B208" s="1" t="inlineStr">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>User 5</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
         <is>
           <t>Dev Tech 34</t>
         </is>
@@ -3479,8 +4182,12 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="1" t="n"/>
-      <c r="B209" s="1" t="inlineStr">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>User 5</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
         <is>
           <t>Dev Tech 4</t>
         </is>
@@ -3493,8 +4200,12 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="1" t="n"/>
-      <c r="B210" s="1" t="inlineStr">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>User 5</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
         <is>
           <t>Dev Tech 44</t>
         </is>
@@ -3507,8 +4218,12 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="1" t="n"/>
-      <c r="B211" s="1" t="inlineStr">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>User 5</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
         <is>
           <t>Dev Tech 5</t>
         </is>
@@ -3521,8 +4236,12 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="1" t="n"/>
-      <c r="B212" s="1" t="inlineStr">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>User 5</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
         <is>
           <t>Dev Tech 7</t>
         </is>
@@ -3535,8 +4254,12 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="1" t="n"/>
-      <c r="B213" s="1" t="inlineStr">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>User 5</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
         <is>
           <t>Dev Tech 8</t>
         </is>
@@ -3549,12 +4272,12 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="1" t="inlineStr">
+      <c r="A214" t="inlineStr">
         <is>
           <t>User 6</t>
         </is>
       </c>
-      <c r="B214" s="1" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>Dev Tech 1</t>
         </is>
@@ -3567,8 +4290,12 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="1" t="n"/>
-      <c r="B215" s="1" t="inlineStr">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>User 6</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
         <is>
           <t>Dev Tech 27</t>
         </is>
@@ -3581,8 +4308,12 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="1" t="n"/>
-      <c r="B216" s="1" t="inlineStr">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>User 6</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
         <is>
           <t>Dev Tech 32</t>
         </is>
@@ -3595,8 +4326,12 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="1" t="n"/>
-      <c r="B217" s="1" t="inlineStr">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>User 6</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
         <is>
           <t>Dev Tech 34</t>
         </is>
@@ -3609,8 +4344,12 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="1" t="n"/>
-      <c r="B218" s="1" t="inlineStr">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>User 6</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
         <is>
           <t>Dev Tech 35</t>
         </is>
@@ -3623,8 +4362,12 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="1" t="n"/>
-      <c r="B219" s="1" t="inlineStr">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>User 6</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
         <is>
           <t>Dev Tech 45</t>
         </is>
@@ -3637,8 +4380,12 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="1" t="n"/>
-      <c r="B220" s="1" t="inlineStr">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>User 6</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
         <is>
           <t>Dev Tech 5</t>
         </is>
@@ -3651,8 +4398,12 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="1" t="n"/>
-      <c r="B221" s="1" t="inlineStr">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>User 6</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
         <is>
           <t>Dev Tech 6</t>
         </is>
@@ -3665,8 +4416,12 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="1" t="n"/>
-      <c r="B222" s="1" t="inlineStr">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>User 6</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
         <is>
           <t>Dev Tech 8</t>
         </is>
@@ -3679,8 +4434,12 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="1" t="n"/>
-      <c r="B223" s="1" t="inlineStr">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>User 6</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
         <is>
           <t>Dev Tech 9</t>
         </is>
@@ -3693,12 +4452,12 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="1" t="inlineStr">
+      <c r="A224" t="inlineStr">
         <is>
           <t>User 7</t>
         </is>
       </c>
-      <c r="B224" s="1" t="inlineStr">
+      <c r="B224" t="inlineStr">
         <is>
           <t>Dev Tech 10</t>
         </is>
@@ -3711,8 +4470,12 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="1" t="n"/>
-      <c r="B225" s="1" t="inlineStr">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>User 7</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
         <is>
           <t>Dev Tech 2</t>
         </is>
@@ -3725,8 +4488,12 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="1" t="n"/>
-      <c r="B226" s="1" t="inlineStr">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>User 7</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
         <is>
           <t>Dev Tech 28</t>
         </is>
@@ -3739,8 +4506,12 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="1" t="n"/>
-      <c r="B227" s="1" t="inlineStr">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>User 7</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
         <is>
           <t>Dev Tech 33</t>
         </is>
@@ -3753,8 +4524,12 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="1" t="n"/>
-      <c r="B228" s="1" t="inlineStr">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>User 7</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
         <is>
           <t>Dev Tech 35</t>
         </is>
@@ -3767,8 +4542,12 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="1" t="n"/>
-      <c r="B229" s="1" t="inlineStr">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>User 7</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
         <is>
           <t>Dev Tech 36</t>
         </is>
@@ -3781,8 +4560,12 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="1" t="n"/>
-      <c r="B230" s="1" t="inlineStr">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>User 7</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
         <is>
           <t>Dev Tech 46</t>
         </is>
@@ -3795,8 +4578,12 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="1" t="n"/>
-      <c r="B231" s="1" t="inlineStr">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>User 7</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
         <is>
           <t>Dev Tech 6</t>
         </is>
@@ -3809,8 +4596,12 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="1" t="n"/>
-      <c r="B232" s="1" t="inlineStr">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>User 7</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
         <is>
           <t>Dev Tech 7</t>
         </is>
@@ -3823,8 +4614,12 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="1" t="n"/>
-      <c r="B233" s="1" t="inlineStr">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>User 7</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
         <is>
           <t>Dev Tech 9</t>
         </is>
@@ -3837,12 +4632,12 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="1" t="inlineStr">
+      <c r="A234" t="inlineStr">
         <is>
           <t>User 8</t>
         </is>
       </c>
-      <c r="B234" s="1" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Dev Tech 10</t>
         </is>
@@ -3855,8 +4650,12 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="1" t="n"/>
-      <c r="B235" s="1" t="inlineStr">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>User 8</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
         <is>
           <t>Dev Tech 11</t>
         </is>
@@ -3869,8 +4668,12 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="1" t="n"/>
-      <c r="B236" s="1" t="inlineStr">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>User 8</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
         <is>
           <t>Dev Tech 29</t>
         </is>
@@ -3883,8 +4686,12 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="1" t="n"/>
-      <c r="B237" s="1" t="inlineStr">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>User 8</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
         <is>
           <t>Dev Tech 3</t>
         </is>
@@ -3897,8 +4704,12 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="1" t="n"/>
-      <c r="B238" s="1" t="inlineStr">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>User 8</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
         <is>
           <t>Dev Tech 34</t>
         </is>
@@ -3911,8 +4722,12 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="1" t="n"/>
-      <c r="B239" s="1" t="inlineStr">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>User 8</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
         <is>
           <t>Dev Tech 36</t>
         </is>
@@ -3925,8 +4740,12 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="1" t="n"/>
-      <c r="B240" s="1" t="inlineStr">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>User 8</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
         <is>
           <t>Dev Tech 37</t>
         </is>
@@ -3939,8 +4758,12 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="1" t="n"/>
-      <c r="B241" s="1" t="inlineStr">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>User 8</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
         <is>
           <t>Dev Tech 47</t>
         </is>
@@ -3953,8 +4776,12 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="1" t="n"/>
-      <c r="B242" s="1" t="inlineStr">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>User 8</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
         <is>
           <t>Dev Tech 7</t>
         </is>
@@ -3967,8 +4794,12 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="1" t="n"/>
-      <c r="B243" s="1" t="inlineStr">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>User 8</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
         <is>
           <t>Dev Tech 8</t>
         </is>
@@ -3981,12 +4812,12 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="1" t="inlineStr">
+      <c r="A244" t="inlineStr">
         <is>
           <t>User 9</t>
         </is>
       </c>
-      <c r="B244" s="1" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>Dev Tech 11</t>
         </is>
@@ -3999,8 +4830,12 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="1" t="n"/>
-      <c r="B245" s="1" t="inlineStr">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>User 9</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
         <is>
           <t>Dev Tech 12</t>
         </is>
@@ -4013,8 +4848,12 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="1" t="n"/>
-      <c r="B246" s="1" t="inlineStr">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>User 9</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
         <is>
           <t>Dev Tech 30</t>
         </is>
@@ -4027,8 +4866,12 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="1" t="n"/>
-      <c r="B247" s="1" t="inlineStr">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>User 9</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
         <is>
           <t>Dev Tech 35</t>
         </is>
@@ -4041,8 +4884,12 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="1" t="n"/>
-      <c r="B248" s="1" t="inlineStr">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>User 9</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
         <is>
           <t>Dev Tech 37</t>
         </is>
@@ -4055,8 +4902,12 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="1" t="n"/>
-      <c r="B249" s="1" t="inlineStr">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>User 9</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
         <is>
           <t>Dev Tech 38</t>
         </is>
@@ -4069,8 +4920,12 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="1" t="n"/>
-      <c r="B250" s="1" t="inlineStr">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>User 9</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
         <is>
           <t>Dev Tech 4</t>
         </is>
@@ -4083,8 +4938,12 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="1" t="n"/>
-      <c r="B251" s="1" t="inlineStr">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>User 9</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
         <is>
           <t>Dev Tech 48</t>
         </is>
@@ -4097,8 +4956,12 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="1" t="n"/>
-      <c r="B252" s="1" t="inlineStr">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>User 9</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
         <is>
           <t>Dev Tech 8</t>
         </is>
@@ -4111,8 +4974,12 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="1" t="n"/>
-      <c r="B253" s="1" t="inlineStr">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>User 9</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
         <is>
           <t>Dev Tech 9</t>
         </is>
@@ -4125,37 +4992,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A43:A52"/>
-    <mergeCell ref="A53:A62"/>
-    <mergeCell ref="A63:A71"/>
-    <mergeCell ref="A72:A80"/>
-    <mergeCell ref="A81:A89"/>
-    <mergeCell ref="A90:A98"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="A108:A117"/>
-    <mergeCell ref="A118:A126"/>
-    <mergeCell ref="A127:A135"/>
-    <mergeCell ref="A136:A144"/>
-    <mergeCell ref="A145:A153"/>
-    <mergeCell ref="A154:A160"/>
-    <mergeCell ref="A161:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A177:A179"/>
-    <mergeCell ref="A180:A182"/>
-    <mergeCell ref="A183:A192"/>
-    <mergeCell ref="A194:A203"/>
-    <mergeCell ref="A204:A213"/>
-    <mergeCell ref="A214:A223"/>
-    <mergeCell ref="A224:A233"/>
-    <mergeCell ref="A234:A243"/>
-    <mergeCell ref="A244:A253"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>